--- a/MFP/MFP.xlsx
+++ b/MFP/MFP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\flask2\MFP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B81FA6-EF1C-4B3B-86D3-D420187CE6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA000F2-2AC4-48DC-8EFD-F2F740B2CADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28665" yWindow="-135" windowWidth="21870" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="643">
   <si>
     <t>項次</t>
   </si>
@@ -2330,6 +2330,10 @@
     <t>合計</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2418,7 +2422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2437,6 +2441,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2748,8 +2755,8 @@
   </sheetPr>
   <dimension ref="A1:M141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2846,7 +2853,9 @@
       <c r="L2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="3"/>
+      <c r="M2" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3">
@@ -2885,7 +2894,9 @@
       <c r="L3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="3"/>
+      <c r="M3" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="3">
@@ -2924,7 +2935,9 @@
       <c r="L4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="M4" s="3"/>
+      <c r="M4" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="3">
@@ -2963,7 +2976,9 @@
       <c r="L5" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="3">
@@ -3002,7 +3017,9 @@
       <c r="L6" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="M6" s="3"/>
+      <c r="M6" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="3">
@@ -3041,7 +3058,9 @@
       <c r="L7" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="3">
@@ -3080,7 +3099,9 @@
       <c r="L8" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="M8" s="3"/>
+      <c r="M8" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="3">
@@ -3119,7 +3140,9 @@
       <c r="L9" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="M9" s="3"/>
+      <c r="M9" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3">
@@ -3158,7 +3181,9 @@
       <c r="L10" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="M10" s="3"/>
+      <c r="M10" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3">
@@ -3197,7 +3222,9 @@
       <c r="L11" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="M11" s="3"/>
+      <c r="M11" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="3">
@@ -3236,7 +3263,9 @@
       <c r="L12" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="M12" s="3"/>
+      <c r="M12" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3">
@@ -3275,7 +3304,9 @@
       <c r="L13" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="M13" s="3"/>
+      <c r="M13" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="3">
@@ -3314,7 +3345,9 @@
       <c r="L14" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="M14" s="3"/>
+      <c r="M14" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3">
@@ -3353,7 +3386,9 @@
       <c r="L15" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="M15" s="3"/>
+      <c r="M15" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="3">
@@ -3392,7 +3427,9 @@
       <c r="L16" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="M16" s="3"/>
+      <c r="M16" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="3">
@@ -3431,7 +3468,9 @@
       <c r="L17" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="M17" s="3"/>
+      <c r="M17" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="3">
@@ -3470,7 +3509,9 @@
       <c r="L18" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="M18" s="3"/>
+      <c r="M18" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="3">
@@ -3509,7 +3550,9 @@
       <c r="L19" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="M19" s="3"/>
+      <c r="M19" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="3">
@@ -3548,7 +3591,9 @@
       <c r="L20" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="M20" s="3"/>
+      <c r="M20" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3">
@@ -3587,7 +3632,9 @@
       <c r="L21" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="M21" s="3"/>
+      <c r="M21" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="3">
@@ -3626,7 +3673,9 @@
       <c r="L22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M22" s="3"/>
+      <c r="M22" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="3">
@@ -3747,7 +3796,9 @@
       <c r="L25" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="M25" s="3"/>
+      <c r="M25" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="3">
@@ -3909,7 +3960,9 @@
       <c r="L29" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="M29" s="3"/>
+      <c r="M29" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="3">
@@ -3948,7 +4001,9 @@
       <c r="L30" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="M30" s="3"/>
+      <c r="M30" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="3">
@@ -4069,7 +4124,9 @@
       <c r="L33" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="M33" s="3"/>
+      <c r="M33" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="3">
@@ -4108,7 +4165,9 @@
       <c r="L34" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="M34" s="3"/>
+      <c r="M34" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="3">
@@ -4147,7 +4206,9 @@
       <c r="L35" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="M35" s="3"/>
+      <c r="M35" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="3">
@@ -5498,7 +5559,9 @@
       <c r="L68" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="M68" s="3"/>
+      <c r="M68" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="3">
@@ -5537,7 +5600,9 @@
       <c r="L69" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="M69" s="3"/>
+      <c r="M69" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="3">
@@ -5576,7 +5641,9 @@
       <c r="L70" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="M70" s="3"/>
+      <c r="M70" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="3">
@@ -5615,7 +5682,9 @@
       <c r="L71" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="M71" s="3"/>
+      <c r="M71" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="3">
@@ -5695,7 +5764,9 @@
       <c r="L73" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M73" s="3"/>
+      <c r="M73" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="3">
@@ -5734,7 +5805,9 @@
       <c r="L74" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M74" s="3"/>
+      <c r="M74" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="3">
@@ -5773,7 +5846,9 @@
       <c r="L75" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="M75" s="3"/>
+      <c r="M75" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="3">
@@ -5853,7 +5928,9 @@
       <c r="L77" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="M77" s="3"/>
+      <c r="M77" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="3">
@@ -5892,7 +5969,9 @@
       <c r="L78" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="M78" s="3"/>
+      <c r="M78" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="3">
@@ -5931,7 +6010,9 @@
       <c r="L79" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="M79" s="3"/>
+      <c r="M79" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="3">
@@ -5970,7 +6051,9 @@
       <c r="L80" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="M80" s="3"/>
+      <c r="M80" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="3">
@@ -6132,7 +6215,9 @@
       <c r="L84" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="M84" s="3"/>
+      <c r="M84" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="3">
@@ -6212,7 +6297,9 @@
       <c r="L86" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="M86" s="3"/>
+      <c r="M86" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="3">
@@ -6251,7 +6338,9 @@
       <c r="L87" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="M87" s="3"/>
+      <c r="M87" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="3">
@@ -6372,7 +6461,9 @@
       <c r="L90" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="M90" s="3"/>
+      <c r="M90" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="3">
@@ -6411,7 +6502,9 @@
       <c r="L91" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="M91" s="3"/>
+      <c r="M91" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="3">
@@ -6450,7 +6543,9 @@
       <c r="L92" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="M92" s="3"/>
+      <c r="M92" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="3">
@@ -6489,7 +6584,9 @@
       <c r="L93" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="M93" s="3"/>
+      <c r="M93" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="3">
@@ -6528,7 +6625,9 @@
       <c r="L94" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="M94" s="3"/>
+      <c r="M94" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="3">
@@ -7018,7 +7117,9 @@
       <c r="L106" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="M106" s="3"/>
+      <c r="M106" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="3">
@@ -7057,7 +7158,9 @@
       <c r="L107" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="M107" s="3"/>
+      <c r="M107" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="3">
@@ -7096,7 +7199,9 @@
       <c r="L108" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="M108" s="3"/>
+      <c r="M108" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="3">
@@ -7135,7 +7240,9 @@
       <c r="L109" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="M109" s="3"/>
+      <c r="M109" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="3">
@@ -7666,7 +7773,9 @@
       <c r="L122" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="M122" s="3"/>
+      <c r="M122" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="3">
@@ -7869,7 +7978,9 @@
       <c r="L127" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="M127" s="3"/>
+      <c r="M127" s="8" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="128" spans="1:13">
       <c r="A128" s="3">
@@ -8368,11 +8479,7 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A1:M139" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M139">
-      <sortCondition ref="J1:J139"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:M139" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -8383,7 +8490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1236C42-5302-41F2-82B2-D1AAFEF420D5}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>

--- a/MFP/MFP.xlsx
+++ b/MFP/MFP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\flask2\MFP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA000F2-2AC4-48DC-8EFD-F2F740B2CADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C24CF2D-DCE0-4B4B-9C5C-1A3248AA8624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28665" yWindow="-135" windowWidth="21870" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="647">
   <si>
     <t>項次</t>
   </si>
@@ -2299,10 +2299,6 @@
     <t>八里區</t>
   </si>
   <si>
-    <t>數量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>彩色機型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2332,6 +2328,26 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>異常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客戶數量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30/天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60/天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>90/天</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2755,7 +2771,7 @@
   </sheetPr>
   <dimension ref="A1:M141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -2783,7 +2799,7 @@
         <v>517</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -2854,7 +2870,7 @@
         <v>15</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2895,7 +2911,7 @@
         <v>49</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2936,7 +2952,7 @@
         <v>80</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2977,7 +2993,7 @@
         <v>135</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3018,7 +3034,7 @@
         <v>174</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3059,7 +3075,7 @@
         <v>184</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3100,7 +3116,7 @@
         <v>232</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3141,7 +3157,7 @@
         <v>269</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3182,7 +3198,7 @@
         <v>310</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3223,7 +3239,7 @@
         <v>315</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -3264,7 +3280,7 @@
         <v>325</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -3305,7 +3321,7 @@
         <v>334</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -3346,7 +3362,7 @@
         <v>339</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -3387,7 +3403,7 @@
         <v>344</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -3428,7 +3444,7 @@
         <v>349</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -3469,7 +3485,7 @@
         <v>516</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -3510,7 +3526,7 @@
         <v>130</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -3551,7 +3567,7 @@
         <v>179</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -3592,7 +3608,7 @@
         <v>222</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -3633,7 +3649,7 @@
         <v>38</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -3674,7 +3690,7 @@
         <v>43</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -3797,7 +3813,7 @@
         <v>150</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -3961,7 +3977,7 @@
         <v>217</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -4002,7 +4018,7 @@
         <v>242</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -4125,7 +4141,7 @@
         <v>264</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -4166,7 +4182,7 @@
         <v>320</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -4207,7 +4223,7 @@
         <v>352</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -5560,7 +5576,7 @@
         <v>113</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -5601,7 +5617,7 @@
         <v>113</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -5642,7 +5658,7 @@
         <v>113</v>
       </c>
       <c r="M70" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -5683,7 +5699,7 @@
         <v>227</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -5765,7 +5781,7 @@
         <v>29</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -5806,7 +5822,7 @@
         <v>29</v>
       </c>
       <c r="M74" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -5847,7 +5863,7 @@
         <v>169</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -5929,7 +5945,7 @@
         <v>108</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -5970,7 +5986,7 @@
         <v>155</v>
       </c>
       <c r="M78" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -6011,7 +6027,7 @@
         <v>198</v>
       </c>
       <c r="M79" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -6052,7 +6068,7 @@
         <v>201</v>
       </c>
       <c r="M80" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -6216,7 +6232,7 @@
         <v>125</v>
       </c>
       <c r="M84" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -6298,7 +6314,7 @@
         <v>205</v>
       </c>
       <c r="M86" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -6339,7 +6355,7 @@
         <v>205</v>
       </c>
       <c r="M87" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -6462,7 +6478,7 @@
         <v>99</v>
       </c>
       <c r="M90" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -6503,7 +6519,7 @@
         <v>252</v>
       </c>
       <c r="M91" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -6544,7 +6560,7 @@
         <v>255</v>
       </c>
       <c r="M92" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -6585,7 +6601,7 @@
         <v>258</v>
       </c>
       <c r="M93" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -6626,7 +6642,7 @@
         <v>260</v>
       </c>
       <c r="M94" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -7118,7 +7134,7 @@
         <v>119</v>
       </c>
       <c r="M106" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -7159,7 +7175,7 @@
         <v>138</v>
       </c>
       <c r="M107" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -7200,7 +7216,7 @@
         <v>141</v>
       </c>
       <c r="M108" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -7241,7 +7257,7 @@
         <v>160</v>
       </c>
       <c r="M109" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -7774,7 +7790,7 @@
         <v>329</v>
       </c>
       <c r="M122" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -7979,7 +7995,7 @@
         <v>237</v>
       </c>
       <c r="M127" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -8490,8 +8506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1236C42-5302-41F2-82B2-D1AAFEF420D5}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8506,7 +8522,7 @@
         <v>533</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>629</v>
@@ -8553,7 +8569,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="7" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="B2" s="7">
         <f>SUM(C2:P2)</f>
@@ -8618,7 +8634,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B3" s="7">
         <f t="shared" ref="B3:B4" si="0">SUM(C3:P3)</f>
@@ -8683,7 +8699,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B4" s="7">
         <f t="shared" si="0"/>
@@ -8748,10 +8764,10 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>629</v>
@@ -8797,8 +8813,8 @@
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="7">
-        <v>30</v>
+      <c r="A7" s="7" t="s">
+        <v>644</v>
       </c>
       <c r="B7" s="7">
         <f>SUM(C7:P7)</f>
@@ -8862,8 +8878,8 @@
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="7">
-        <v>60</v>
+      <c r="A8" s="7" t="s">
+        <v>645</v>
       </c>
       <c r="B8" s="7">
         <f t="shared" ref="B8:B11" si="1">SUM(C8:P8)</f>
@@ -8927,8 +8943,8 @@
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="7">
-        <v>90</v>
+      <c r="A9" s="7" t="s">
+        <v>646</v>
       </c>
       <c r="B9" s="7">
         <f t="shared" si="1"/>
@@ -8993,7 +9009,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B10" s="7">
         <f t="shared" si="1"/>
@@ -9057,8 +9073,8 @@
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="7" t="e">
-        <v>#N/A</v>
+      <c r="A11" s="7" t="s">
+        <v>642</v>
       </c>
       <c r="B11" s="7">
         <f t="shared" si="1"/>
@@ -9123,15 +9139,72 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="7" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B12" s="7">
         <f>SUM(B7:B11)</f>
         <v>138</v>
       </c>
+      <c r="C12" s="7">
+        <f>SUM(C7:C11)</f>
+        <v>16</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" ref="D12:P12" si="2">SUM(D7:D11)</f>
+        <v>3</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="J12" s="7">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="K12" s="7">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="L12" s="7">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M12" s="7">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N12" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>